--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col4a3-Cd47.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col4a3-Cd47.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Cd47</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.148777892024328</v>
+        <v>0.3526986666666667</v>
       </c>
       <c r="H2">
-        <v>0.148777892024328</v>
+        <v>1.058096</v>
       </c>
       <c r="I2">
-        <v>0.6728144999718911</v>
+        <v>0.5665984632544969</v>
       </c>
       <c r="J2">
-        <v>0.6728144999718911</v>
+        <v>0.5665984632544969</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>58.3487074018278</v>
+        <v>59.02895333333333</v>
       </c>
       <c r="N2">
-        <v>58.3487074018278</v>
+        <v>177.08686</v>
       </c>
       <c r="O2">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="P2">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="Q2">
-        <v>8.680997689588246</v>
+        <v>20.81943313539556</v>
       </c>
       <c r="R2">
-        <v>8.680997689588246</v>
+        <v>187.37489821856</v>
       </c>
       <c r="S2">
-        <v>0.1352161611220384</v>
+        <v>0.1139985027170759</v>
       </c>
       <c r="T2">
-        <v>0.1352161611220384</v>
+        <v>0.1139985027170759</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.148777892024328</v>
+        <v>0.3526986666666667</v>
       </c>
       <c r="H3">
-        <v>0.148777892024328</v>
+        <v>1.058096</v>
       </c>
       <c r="I3">
-        <v>0.6728144999718911</v>
+        <v>0.5665984632544969</v>
       </c>
       <c r="J3">
-        <v>0.6728144999718911</v>
+        <v>0.5665984632544969</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>70.7088546489813</v>
+        <v>71.14312966666667</v>
       </c>
       <c r="N3">
-        <v>70.7088546489813</v>
+        <v>213.429389</v>
       </c>
       <c r="O3">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230654</v>
       </c>
       <c r="P3">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230655</v>
       </c>
       <c r="Q3">
-        <v>10.51991434213004</v>
+        <v>25.09208697592711</v>
       </c>
       <c r="R3">
-        <v>10.51991434213004</v>
+        <v>225.8287827833441</v>
       </c>
       <c r="S3">
-        <v>0.1638593262594185</v>
+        <v>0.1373937670012351</v>
       </c>
       <c r="T3">
-        <v>0.1638593262594185</v>
+        <v>0.1373937670012351</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.148777892024328</v>
+        <v>0.3526986666666667</v>
       </c>
       <c r="H4">
-        <v>0.148777892024328</v>
+        <v>1.058096</v>
       </c>
       <c r="I4">
-        <v>0.6728144999718911</v>
+        <v>0.5665984632544969</v>
       </c>
       <c r="J4">
-        <v>0.6728144999718911</v>
+        <v>0.5665984632544969</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0475983211664</v>
+        <v>68.402828</v>
       </c>
       <c r="N4">
-        <v>68.0475983211664</v>
+        <v>205.208484</v>
       </c>
       <c r="O4">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="P4">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="Q4">
-        <v>10.12397823554134</v>
+        <v>24.12558623182934</v>
       </c>
       <c r="R4">
-        <v>10.12397823554134</v>
+        <v>217.130276086464</v>
       </c>
       <c r="S4">
-        <v>0.1576921825396659</v>
+        <v>0.1321016134163823</v>
       </c>
       <c r="T4">
-        <v>0.1576921825396659</v>
+        <v>0.1321016134163823</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.148777892024328</v>
+        <v>0.3526986666666667</v>
       </c>
       <c r="H5">
-        <v>0.148777892024328</v>
+        <v>1.058096</v>
       </c>
       <c r="I5">
-        <v>0.6728144999718911</v>
+        <v>0.5665984632544969</v>
       </c>
       <c r="J5">
-        <v>0.6728144999718911</v>
+        <v>0.5665984632544969</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>74.3184298140351</v>
+        <v>74.34717300000001</v>
       </c>
       <c r="N5">
-        <v>74.3184298140351</v>
+        <v>223.041519</v>
       </c>
       <c r="O5">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="P5">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="Q5">
-        <v>11.05693932629011</v>
+        <v>26.22214878753601</v>
       </c>
       <c r="R5">
-        <v>11.05693932629011</v>
+        <v>235.9993390878241</v>
       </c>
       <c r="S5">
-        <v>0.1722240856317012</v>
+        <v>0.143581512539904</v>
       </c>
       <c r="T5">
-        <v>0.1722240856317012</v>
+        <v>0.143581512539904</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.148777892024328</v>
+        <v>0.3526986666666667</v>
       </c>
       <c r="H6">
-        <v>0.148777892024328</v>
+        <v>1.058096</v>
       </c>
       <c r="I6">
-        <v>0.6728144999718911</v>
+        <v>0.5665984632544969</v>
       </c>
       <c r="J6">
-        <v>0.6728144999718911</v>
+        <v>0.5665984632544969</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.9104650689308</v>
+        <v>20.46522766666667</v>
       </c>
       <c r="N6">
-        <v>18.9104650689308</v>
+        <v>61.395683</v>
       </c>
       <c r="O6">
-        <v>0.06513347203560252</v>
+        <v>0.0697549854845745</v>
       </c>
       <c r="P6">
-        <v>0.06513347203560252</v>
+        <v>0.0697549854845745</v>
       </c>
       <c r="Q6">
-        <v>2.813459130155213</v>
+        <v>7.218058511063112</v>
       </c>
       <c r="R6">
-        <v>2.813459130155213</v>
+        <v>64.96252659956801</v>
       </c>
       <c r="S6">
-        <v>0.04382274441906706</v>
+        <v>0.03952306757989965</v>
       </c>
       <c r="T6">
-        <v>0.04382274441906706</v>
+        <v>0.03952306757989965</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.072349762077276</v>
+        <v>0.1058106666666667</v>
       </c>
       <c r="H7">
-        <v>0.072349762077276</v>
+        <v>0.317432</v>
       </c>
       <c r="I7">
-        <v>0.3271855000281089</v>
+        <v>0.1699812525402246</v>
       </c>
       <c r="J7">
-        <v>0.3271855000281089</v>
+        <v>0.1699812525402246</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>58.3487074018278</v>
+        <v>59.02895333333333</v>
       </c>
       <c r="N7">
-        <v>58.3487074018278</v>
+        <v>177.08686</v>
       </c>
       <c r="O7">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="P7">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="Q7">
-        <v>4.221515098038835</v>
+        <v>6.245892904835555</v>
       </c>
       <c r="R7">
-        <v>4.221515098038835</v>
+        <v>56.21303614352</v>
       </c>
       <c r="S7">
-        <v>0.06575477682250273</v>
+        <v>0.03419989558082331</v>
       </c>
       <c r="T7">
-        <v>0.06575477682250273</v>
+        <v>0.03419989558082331</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.072349762077276</v>
+        <v>0.1058106666666667</v>
       </c>
       <c r="H8">
-        <v>0.072349762077276</v>
+        <v>0.317432</v>
       </c>
       <c r="I8">
-        <v>0.3271855000281089</v>
+        <v>0.1699812525402246</v>
       </c>
       <c r="J8">
-        <v>0.3271855000281089</v>
+        <v>0.1699812525402246</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>70.7088546489813</v>
+        <v>71.14312966666667</v>
       </c>
       <c r="N8">
-        <v>70.7088546489813</v>
+        <v>213.429389</v>
       </c>
       <c r="O8">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230654</v>
       </c>
       <c r="P8">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230655</v>
       </c>
       <c r="Q8">
-        <v>5.115768810610488</v>
+        <v>7.527701978783111</v>
       </c>
       <c r="R8">
-        <v>5.115768810610488</v>
+        <v>67.74931780904801</v>
       </c>
       <c r="S8">
-        <v>0.07968376959577521</v>
+        <v>0.04121854562037476</v>
       </c>
       <c r="T8">
-        <v>0.07968376959577521</v>
+        <v>0.04121854562037477</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.072349762077276</v>
+        <v>0.1058106666666667</v>
       </c>
       <c r="H9">
-        <v>0.072349762077276</v>
+        <v>0.317432</v>
       </c>
       <c r="I9">
-        <v>0.3271855000281089</v>
+        <v>0.1699812525402246</v>
       </c>
       <c r="J9">
-        <v>0.3271855000281089</v>
+        <v>0.1699812525402246</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.0475983211664</v>
+        <v>68.402828</v>
       </c>
       <c r="N9">
-        <v>68.0475983211664</v>
+        <v>205.208484</v>
       </c>
       <c r="O9">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="P9">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="Q9">
-        <v>4.923227548466436</v>
+        <v>7.237748832565333</v>
       </c>
       <c r="R9">
-        <v>4.923227548466436</v>
+        <v>65.139739493088</v>
       </c>
       <c r="S9">
-        <v>0.07668472602317568</v>
+        <v>0.0396308835398575</v>
       </c>
       <c r="T9">
-        <v>0.07668472602317568</v>
+        <v>0.0396308835398575</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.072349762077276</v>
+        <v>0.1058106666666667</v>
       </c>
       <c r="H10">
-        <v>0.072349762077276</v>
+        <v>0.317432</v>
       </c>
       <c r="I10">
-        <v>0.3271855000281089</v>
+        <v>0.1699812525402246</v>
       </c>
       <c r="J10">
-        <v>0.3271855000281089</v>
+        <v>0.1699812525402246</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>74.3184298140351</v>
+        <v>74.34717300000001</v>
       </c>
       <c r="N10">
-        <v>74.3184298140351</v>
+        <v>223.041519</v>
       </c>
       <c r="O10">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="P10">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="Q10">
-        <v>5.376920715002175</v>
+        <v>7.866723939912001</v>
       </c>
       <c r="R10">
-        <v>5.376920715002175</v>
+        <v>70.800515459208</v>
       </c>
       <c r="S10">
-        <v>0.0837514999701198</v>
+        <v>0.04307488799557584</v>
       </c>
       <c r="T10">
-        <v>0.0837514999701198</v>
+        <v>0.04307488799557584</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,681 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1058106666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.317432</v>
+      </c>
+      <c r="I11">
+        <v>0.1699812525402246</v>
+      </c>
+      <c r="J11">
+        <v>0.1699812525402246</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>20.46522766666667</v>
+      </c>
+      <c r="N11">
+        <v>61.395683</v>
+      </c>
+      <c r="O11">
+        <v>0.0697549854845745</v>
+      </c>
+      <c r="P11">
+        <v>0.0697549854845745</v>
+      </c>
+      <c r="Q11">
+        <v>2.165439382895111</v>
+      </c>
+      <c r="R11">
+        <v>19.488954446056</v>
+      </c>
+      <c r="S11">
+        <v>0.01185703980359316</v>
+      </c>
+      <c r="T11">
+        <v>0.01185703980359316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.04200033333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.126001</v>
+      </c>
+      <c r="I12">
+        <v>0.06747211308664795</v>
+      </c>
+      <c r="J12">
+        <v>0.06747211308664797</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>59.02895333333333</v>
+      </c>
+      <c r="N12">
+        <v>177.08686</v>
+      </c>
+      <c r="O12">
+        <v>0.2011980443121526</v>
+      </c>
+      <c r="P12">
+        <v>0.2011980443121526</v>
+      </c>
+      <c r="Q12">
+        <v>2.479235716317778</v>
+      </c>
+      <c r="R12">
+        <v>22.31312144686</v>
+      </c>
+      <c r="S12">
+        <v>0.01357525719864197</v>
+      </c>
+      <c r="T12">
+        <v>0.01357525719864197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.04200033333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.126001</v>
+      </c>
+      <c r="I13">
+        <v>0.06747211308664795</v>
+      </c>
+      <c r="J13">
+        <v>0.06747211308664797</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>71.14312966666667</v>
+      </c>
+      <c r="N13">
+        <v>213.429389</v>
+      </c>
+      <c r="O13">
+        <v>0.2424887745230654</v>
+      </c>
+      <c r="P13">
+        <v>0.2424887745230655</v>
+      </c>
+      <c r="Q13">
+        <v>2.988035160376556</v>
+      </c>
+      <c r="R13">
+        <v>26.892316443389</v>
+      </c>
+      <c r="S13">
+        <v>0.01636123001686295</v>
+      </c>
+      <c r="T13">
+        <v>0.01636123001686296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.04200033333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.126001</v>
+      </c>
+      <c r="I14">
+        <v>0.06747211308664795</v>
+      </c>
+      <c r="J14">
+        <v>0.06747211308664797</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>68.402828</v>
+      </c>
+      <c r="N14">
+        <v>205.208484</v>
+      </c>
+      <c r="O14">
+        <v>0.233148555782522</v>
+      </c>
+      <c r="P14">
+        <v>0.233148555782522</v>
+      </c>
+      <c r="Q14">
+        <v>2.872941576942666</v>
+      </c>
+      <c r="R14">
+        <v>25.856474192484</v>
+      </c>
+      <c r="S14">
+        <v>0.01573102572174697</v>
+      </c>
+      <c r="T14">
+        <v>0.01573102572174698</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.04200033333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.126001</v>
+      </c>
+      <c r="I15">
+        <v>0.06747211308664795</v>
+      </c>
+      <c r="J15">
+        <v>0.06747211308664797</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>74.34717300000001</v>
+      </c>
+      <c r="N15">
+        <v>223.041519</v>
+      </c>
+      <c r="O15">
+        <v>0.2534096398976854</v>
+      </c>
+      <c r="P15">
+        <v>0.2534096398976854</v>
+      </c>
+      <c r="Q15">
+        <v>3.122606048391001</v>
+      </c>
+      <c r="R15">
+        <v>28.103454435519</v>
+      </c>
+      <c r="S15">
+        <v>0.01709808388042337</v>
+      </c>
+      <c r="T15">
+        <v>0.01709808388042337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.04200033333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.126001</v>
+      </c>
+      <c r="I16">
+        <v>0.06747211308664795</v>
+      </c>
+      <c r="J16">
+        <v>0.06747211308664797</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>20.46522766666667</v>
+      </c>
+      <c r="N16">
+        <v>61.395683</v>
+      </c>
+      <c r="O16">
+        <v>0.0697549854845745</v>
+      </c>
+      <c r="P16">
+        <v>0.0697549854845745</v>
+      </c>
+      <c r="Q16">
+        <v>0.8595463837425555</v>
+      </c>
+      <c r="R16">
+        <v>7.735917453683</v>
+      </c>
+      <c r="S16">
+        <v>0.004706516268972697</v>
+      </c>
+      <c r="T16">
+        <v>0.004706516268972698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.1219746666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.365924</v>
+      </c>
+      <c r="I17">
+        <v>0.1959481711186305</v>
+      </c>
+      <c r="J17">
+        <v>0.1959481711186306</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>59.02895333333333</v>
+      </c>
+      <c r="N17">
+        <v>177.08686</v>
+      </c>
+      <c r="O17">
+        <v>0.2011980443121526</v>
+      </c>
+      <c r="P17">
+        <v>0.2011980443121526</v>
+      </c>
+      <c r="Q17">
+        <v>7.200036906515555</v>
+      </c>
+      <c r="R17">
+        <v>64.80033215863999</v>
+      </c>
+      <c r="S17">
+        <v>0.03942438881561149</v>
+      </c>
+      <c r="T17">
+        <v>0.0394243888156115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.072349762077276</v>
-      </c>
-      <c r="H11">
-        <v>0.072349762077276</v>
-      </c>
-      <c r="I11">
-        <v>0.3271855000281089</v>
-      </c>
-      <c r="J11">
-        <v>0.3271855000281089</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>18.9104650689308</v>
-      </c>
-      <c r="N11">
-        <v>18.9104650689308</v>
-      </c>
-      <c r="O11">
-        <v>0.06513347203560252</v>
-      </c>
-      <c r="P11">
-        <v>0.06513347203560252</v>
-      </c>
-      <c r="Q11">
-        <v>1.368167648507782</v>
-      </c>
-      <c r="R11">
-        <v>1.368167648507782</v>
-      </c>
-      <c r="S11">
-        <v>0.02131072761653546</v>
-      </c>
-      <c r="T11">
-        <v>0.02131072761653546</v>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.1219746666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.365924</v>
+      </c>
+      <c r="I18">
+        <v>0.1959481711186305</v>
+      </c>
+      <c r="J18">
+        <v>0.1959481711186306</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>71.14312966666667</v>
+      </c>
+      <c r="N18">
+        <v>213.429389</v>
+      </c>
+      <c r="O18">
+        <v>0.2424887745230654</v>
+      </c>
+      <c r="P18">
+        <v>0.2424887745230655</v>
+      </c>
+      <c r="Q18">
+        <v>8.677659526715111</v>
+      </c>
+      <c r="R18">
+        <v>78.098935740436</v>
+      </c>
+      <c r="S18">
+        <v>0.04751523188459264</v>
+      </c>
+      <c r="T18">
+        <v>0.04751523188459266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.1219746666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.365924</v>
+      </c>
+      <c r="I19">
+        <v>0.1959481711186305</v>
+      </c>
+      <c r="J19">
+        <v>0.1959481711186306</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>68.402828</v>
+      </c>
+      <c r="N19">
+        <v>205.208484</v>
+      </c>
+      <c r="O19">
+        <v>0.233148555782522</v>
+      </c>
+      <c r="P19">
+        <v>0.233148555782522</v>
+      </c>
+      <c r="Q19">
+        <v>8.343412144357332</v>
+      </c>
+      <c r="R19">
+        <v>75.09070929921599</v>
+      </c>
+      <c r="S19">
+        <v>0.04568503310453519</v>
+      </c>
+      <c r="T19">
+        <v>0.0456850331045352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.1219746666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.365924</v>
+      </c>
+      <c r="I20">
+        <v>0.1959481711186305</v>
+      </c>
+      <c r="J20">
+        <v>0.1959481711186306</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>74.34717300000001</v>
+      </c>
+      <c r="N20">
+        <v>223.041519</v>
+      </c>
+      <c r="O20">
+        <v>0.2534096398976854</v>
+      </c>
+      <c r="P20">
+        <v>0.2534096398976854</v>
+      </c>
+      <c r="Q20">
+        <v>9.068471644284001</v>
+      </c>
+      <c r="R20">
+        <v>81.616244798556</v>
+      </c>
+      <c r="S20">
+        <v>0.04965515548178221</v>
+      </c>
+      <c r="T20">
+        <v>0.04965515548178222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.1219746666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.365924</v>
+      </c>
+      <c r="I21">
+        <v>0.1959481711186305</v>
+      </c>
+      <c r="J21">
+        <v>0.1959481711186306</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>20.46522766666667</v>
+      </c>
+      <c r="N21">
+        <v>61.395683</v>
+      </c>
+      <c r="O21">
+        <v>0.0697549854845745</v>
+      </c>
+      <c r="P21">
+        <v>0.0697549854845745</v>
+      </c>
+      <c r="Q21">
+        <v>2.496239322899111</v>
+      </c>
+      <c r="R21">
+        <v>22.466153906092</v>
+      </c>
+      <c r="S21">
+        <v>0.01366836183210899</v>
+      </c>
+      <c r="T21">
+        <v>0.01366836183210899</v>
       </c>
     </row>
   </sheetData>
